--- a/Base/Teams/Packers/Distributions.xlsx
+++ b/Base/Teams/Packers/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>JSU(-0.7687754435250465, 1.1788990638674925, 1.329986447186943, 2.9534337305374194)</t>
-  </si>
-  <si>
-    <t>NIG(1.9858789134077846, 1.7193642837964587, 1.7755946546665193, 5.686201800638049)</t>
-  </si>
-  <si>
-    <t>EXN(2.5121650405997977, 0.4358626322269008, 1.6280812934112823)</t>
-  </si>
-  <si>
-    <t>NCT(2.3006645329883506, 2.1427938991560396, -0.012810523548020732, 3.2716829392861477)</t>
+    <t>JSU(-0.859180821046573, 1.210703344943181, 1.1198820233157438, 3.0236999925478205)</t>
+  </si>
+  <si>
+    <t>NIG(1.9418981826723927, 1.6671071541101417, 2.0615484416824525, 5.734867423369177)</t>
+  </si>
+  <si>
+    <t>EXN(2.7146515958262034, 0.3944902712061403, 1.563268500006644)</t>
+  </si>
+  <si>
+    <t>NCT(2.176422702269768, 2.183083665956064, -0.009728249792020919, 3.1450405360482776)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Packers/Distributions.xlsx
+++ b/Base/Teams/Packers/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>JSU(-0.859180821046573, 1.210703344943181, 1.1198820233157438, 3.0236999925478205)</t>
-  </si>
-  <si>
-    <t>NIG(1.9418981826723927, 1.6671071541101417, 2.0615484416824525, 5.734867423369177)</t>
-  </si>
-  <si>
-    <t>EXN(2.7146515958262034, 0.3944902712061403, 1.563268500006644)</t>
-  </si>
-  <si>
-    <t>NCT(2.176422702269768, 2.183083665956064, -0.009728249792020919, 3.1450405360482776)</t>
+    <t>JSU(-0.8860551090425615, 1.2466813679246638, 1.128640659030754, 3.1296047265008546)</t>
+  </si>
+  <si>
+    <t>NCT(3.0649655872736417, 2.630029135862989, -3.5938826991225143, 4.220272025460711)</t>
+  </si>
+  <si>
+    <t>EXN(2.944687840166079, 0.3969455356773065, 1.5781073873341749)</t>
+  </si>
+  <si>
+    <t>NCT(2.166288802748673, 2.225071355342058, -0.008614583288274962, 2.993485620643642)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Packers/Distributions.xlsx
+++ b/Base/Teams/Packers/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>JSU(-0.8860551090425615, 1.2466813679246638, 1.128640659030754, 3.1296047265008546)</t>
-  </si>
-  <si>
-    <t>NCT(3.0649655872736417, 2.630029135862989, -3.5938826991225143, 4.220272025460711)</t>
-  </si>
-  <si>
-    <t>EXN(2.944687840166079, 0.3969455356773065, 1.5781073873341749)</t>
-  </si>
-  <si>
-    <t>NCT(2.166288802748673, 2.225071355342058, -0.008614583288274962, 2.993485620643642)</t>
+    <t>JSU(-0.8751998923213852, 1.2079261590086496, 1.2058988120072138, 3.0017053584783904)</t>
+  </si>
+  <si>
+    <t>NCT(3.2820580911459896, 2.761049683061684, -4.059292879184573, 4.2055641466725735)</t>
+  </si>
+  <si>
+    <t>NIG(1.6501361163822272, 1.2770768149193397, 0.8420476601692433, 3.376656539499697)</t>
+  </si>
+  <si>
+    <t>NCT(2.2626395393482617, 2.078902228193191, -0.011429398161107693, 3.2188042168035795)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Packers/Distributions.xlsx
+++ b/Base/Teams/Packers/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>JSU(-0.8751998923213852, 1.2079261590086496, 1.2058988120072138, 3.0017053584783904)</t>
-  </si>
-  <si>
-    <t>NCT(3.2820580911459896, 2.761049683061684, -4.059292879184573, 4.2055641466725735)</t>
-  </si>
-  <si>
-    <t>NIG(1.6501361163822272, 1.2770768149193397, 0.8420476601692433, 3.376656539499697)</t>
-  </si>
-  <si>
-    <t>NCT(2.2626395393482617, 2.078902228193191, -0.011429398161107693, 3.2188042168035795)</t>
+    <t>JSU(-0.8416365616161359, 1.1893813791480783, 1.3008920294914157, 2.907989791818589)</t>
+  </si>
+  <si>
+    <t>NCT(2.4369115732160322, 1.7389440570237316, -0.010345543767976684, 4.325383411513661)</t>
+  </si>
+  <si>
+    <t>NIG(1.6890916240832192, 1.2892561417156103, 0.8471986467003189, 3.4234820535667816)</t>
+  </si>
+  <si>
+    <t>NCT(2.3136806570653907, 2.0460119801804924, -0.011397963140908587, 3.3272482753602803)</t>
   </si>
 </sst>
 </file>
